--- a/Effort.xlsx
+++ b/Effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d8cf77a867f941d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\44K221.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0DAF65-430C-4B59-AE87-CBA814263C51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F24266B-BCDF-4708-99C7-518C2B3EA8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{1B94F0F9-FCBE-45C8-AF8E-3DCF394FB391}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{1B94F0F9-FCBE-45C8-AF8E-3DCF394FB391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="1" r:id="rId1"/>
@@ -20,26 +20,17 @@
     <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -57,13 +48,304 @@
   </si>
   <si>
     <t>Actual Effort (hours)</t>
+  </si>
+  <si>
+    <t>Tạo chai sữa</t>
+  </si>
+  <si>
+    <t>Anh Hưng</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Tin tức</t>
+  </si>
+  <si>
+    <t>Landing page</t>
+  </si>
+  <si>
+    <t>Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>Về chúng tôi</t>
+  </si>
+  <si>
+    <t>Cửa hàng</t>
+  </si>
+  <si>
+    <t>Test tạo chai sữa</t>
+  </si>
+  <si>
+    <t>Xuân Quỳnh</t>
+  </si>
+  <si>
+    <t>Test Tài khoản</t>
+  </si>
+  <si>
+    <t>Test tin tức</t>
+  </si>
+  <si>
+    <t>Bài SEO 4</t>
+  </si>
+  <si>
+    <t>Minh Anh</t>
+  </si>
+  <si>
+    <t>Đức Huy</t>
+  </si>
+  <si>
+    <t>Test Landing page</t>
+  </si>
+  <si>
+    <t>Minh Châu</t>
+  </si>
+  <si>
+    <t>Test Về Chúng tôi</t>
+  </si>
+  <si>
+    <t>Test cửa hàng</t>
+  </si>
+  <si>
+    <t>Bài SEO 5</t>
+  </si>
+  <si>
+    <t>Build tính năng Blog viết bài</t>
+  </si>
+  <si>
+    <t>Bulid tính năng xem báo cáo</t>
+  </si>
+  <si>
+    <t>Build tính năng cửa hàng</t>
+  </si>
+  <si>
+    <t>Bulid trang quản trị</t>
+  </si>
+  <si>
+    <t>Bulid chi tiết bài viết</t>
+  </si>
+  <si>
+    <t>Build tính năng quản trị thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Build tính năng quản lí đơn hàng</t>
+  </si>
+  <si>
+    <t>Cách sử dụng</t>
+  </si>
+  <si>
+    <t>Bài SEO 2</t>
+  </si>
+  <si>
+    <t>Test blog</t>
+  </si>
+  <si>
+    <t>Test xem báo cáo</t>
+  </si>
+  <si>
+    <t>Test quản lí đơn hàng</t>
+  </si>
+  <si>
+    <t>Mô tả sản phẩm</t>
+  </si>
+  <si>
+    <t>Trang tạo chai sữa</t>
+  </si>
+  <si>
+    <t>Design hình chai sữa mix</t>
+  </si>
+  <si>
+    <t>Công dụng</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa chuyên mục tin tức</t>
+  </si>
+  <si>
+    <t>Design trang tin tức</t>
+  </si>
+  <si>
+    <t>Design chi tiết bài viết</t>
+  </si>
+  <si>
+    <t>Bài SEO 1</t>
+  </si>
+  <si>
+    <t>Bài SEO 3</t>
+  </si>
+  <si>
+    <t>Test tính năng quản trị thông tin</t>
+  </si>
+  <si>
+    <t>Test mục tin tức</t>
+  </si>
+  <si>
+    <t>Build Profile Page</t>
+  </si>
+  <si>
+    <t>Build Cart Page</t>
+  </si>
+  <si>
+    <t>Build Login Page</t>
+  </si>
+  <si>
+    <t>Build Registration Page</t>
+  </si>
+  <si>
+    <t>Build Address Page</t>
+  </si>
+  <si>
+    <t>Build My Order Page</t>
+  </si>
+  <si>
+    <t>Build Check Out Page</t>
+  </si>
+  <si>
+    <t>Build notification sucess/failed login &amp; registration</t>
+  </si>
+  <si>
+    <t>Test Account Page</t>
+  </si>
+  <si>
+    <t>Test Address Page</t>
+  </si>
+  <si>
+    <t>Test Login Page</t>
+  </si>
+  <si>
+    <t>Design Profile Page</t>
+  </si>
+  <si>
+    <t>Design Address Page</t>
+  </si>
+  <si>
+    <t>Design Registration Page</t>
+  </si>
+  <si>
+    <t>Design notification sucess/failed login &amp; registration</t>
+  </si>
+  <si>
+    <t>Design Check Out Page</t>
+  </si>
+  <si>
+    <t>Design Cart Page</t>
+  </si>
+  <si>
+    <t>Design My Order Page</t>
+  </si>
+  <si>
+    <t>Design Login Page</t>
+  </si>
+  <si>
+    <t>Test My Order Page</t>
+  </si>
+  <si>
+    <t>Test Check Out Page</t>
+  </si>
+  <si>
+    <t>Test Cart Page</t>
+  </si>
+  <si>
+    <t>Build Sản phẩm page</t>
+  </si>
+  <si>
+    <t>Build Page chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>[PB03] Build thanh tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>[PB8] Bộ lọc sản phẩm</t>
+  </si>
+  <si>
+    <t>Test Sản Phẩm Page</t>
+  </si>
+  <si>
+    <t>Design hình sản phẩm</t>
+  </si>
+  <si>
+    <t>Design chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Content các loại chai sữa</t>
+  </si>
+  <si>
+    <t>Landing Page - About Us</t>
+  </si>
+  <si>
+    <t>Build Landing Page - Tạo chai sữa</t>
+  </si>
+  <si>
+    <t>Build Landing Page - Tin tức</t>
+  </si>
+  <si>
+    <t>Build Footer</t>
+  </si>
+  <si>
+    <t>Build Landing Page</t>
+  </si>
+  <si>
+    <t>Kết hợp tạo thành landing page mẫu</t>
+  </si>
+  <si>
+    <t>Build Navigation Pane</t>
+  </si>
+  <si>
+    <t>Build Landing Page - About Us</t>
+  </si>
+  <si>
+    <t>Build về chúng tôi page</t>
+  </si>
+  <si>
+    <t>Test Về Chúng Tôi page</t>
+  </si>
+  <si>
+    <t>Test HomePage</t>
+  </si>
+  <si>
+    <t>Design Về chúng tôi page</t>
+  </si>
+  <si>
+    <t>Navigation Pane</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t>Landing Page - Tạo chai sữa</t>
+  </si>
+  <si>
+    <t>Viết nội dung</t>
+  </si>
+  <si>
+    <t>Landing Page - Tin tức</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Branding</t>
+  </si>
+  <si>
+    <t>Set up trang web</t>
+  </si>
+  <si>
+    <t>Ux Reasearch</t>
+  </si>
+  <si>
+    <t>Xây dựng Sitemap</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>User Flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +359,15 @@
       <color theme="1"/>
       <name val="Nunito"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,7 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,14 +414,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,7 +455,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,22 +751,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C54882B-4A7F-4CC1-883D-71EE178D127D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,6 +784,138 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -480,22 +925,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393BBBDF-B3D2-4216-B447-6A227BA670BA}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,29 +960,398 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249A46C6-E0C6-43BD-9EEA-C3E3C15C51BF}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,29 +1371,200 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B2911-F9D2-46D9-B969-23980B9BCD07}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,29 +1584,457 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E69883-7335-49F2-B8E1-AF184D03F2EE}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,29 +2054,511 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547925B0-C28F-4F2D-8552-3985B43AA824}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +2578,400 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4">
+        <v>56</v>
+      </c>
+      <c r="F22" s="5">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Effort.xlsx
+++ b/Effort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\44K221.04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Học\Quản trị dự án công nghệ thông tin\Project Mầm Nut Milk\44K221.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F24266B-BCDF-4708-99C7-518C2B3EA8A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7118724-070C-431A-8A15-BCC2940DC0CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{1B94F0F9-FCBE-45C8-AF8E-3DCF394FB391}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{1B94F0F9-FCBE-45C8-AF8E-3DCF394FB391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 " sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -360,14 +369,15 @@
       <name val="Nunito"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,12 +392,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -410,11 +426,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,18 +481,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,7 +551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,19 +850,19 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -806,7 +902,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -826,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -846,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -866,7 +962,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -886,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -906,15 +1002,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4">
+      <c r="E8" s="20">
         <v>33</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="20">
         <v>29</v>
       </c>
     </row>
@@ -925,22 +1021,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393BBBDF-B3D2-4216-B447-6A227BA670BA}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -974,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -992,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1010,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1028,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1046,289 +1142,379 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <f>SUM(E2:E6)</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="13">
+        <f>SUM(F2:F6)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
+        <f>SUM(E8:E12)</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="13">
+        <f>SUM(F8:F12)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <f>SUM(E14:E15)</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="13">
+        <f>SUM(F14:F15)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <f>SUM(E17:E18)</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="13">
+        <f>SUM(F17:F18)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
+        <f>SUM(E20:E21)</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="13">
+        <f>SUM(F20:F21)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13">
+        <f>SUM(E23:E25)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7">
-        <v>48</v>
+      <c r="F26" s="13">
+        <f>SUM(F23:F25)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="21">
+        <f>SUM(E7,E13,E16,E19,E22,E26)</f>
+        <v>52</v>
+      </c>
+      <c r="F27" s="21">
+        <f>SUM(F7,F13,F16,F19,F22,F26)</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1336,22 +1522,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249A46C6-E0C6-43BD-9EEA-C3E3C15C51BF}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="F11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1391,14 +1577,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4">
@@ -1411,14 +1597,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -1429,14 +1615,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4">
         <v>0</v>
       </c>
@@ -1447,75 +1633,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <f>SUM(E3:E5)</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="13">
+        <f>SUM(F3:F5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1527,15 +1707,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
       <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="20">
         <v>52</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="20">
+        <f>SUM(F2,F6,F7,F8,F9,F10)</f>
         <v>46</v>
       </c>
     </row>
@@ -1549,22 +1750,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184B2911-F9D2-46D9-B969-23980B9BCD07}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,14 +1785,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4">
@@ -1604,14 +1805,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4">
         <v>0</v>
       </c>
@@ -1622,14 +1823,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -1637,17 +1838,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4">
         <v>0</v>
       </c>
@@ -1658,383 +1859,469 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="19">
+        <f>SUM(E2:E5)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="19">
+        <f>SUM(F2:F5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="19">
+        <f>SUM(E7:E10)</f>
+        <v>9</v>
+      </c>
+      <c r="F11" s="19">
+        <f>SUM(F7:F10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="19">
+        <f>SUM(E12:E14)</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="19">
+        <f>SUM(F12:F14)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="19">
+        <f>SUM(E16:E19)</f>
+        <v>9</v>
+      </c>
+      <c r="F20" s="19">
+        <f>SUM(F16:F19)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="19">
+        <f>SUM(E21:E24)</f>
+        <v>9</v>
+      </c>
+      <c r="F25" s="19">
+        <f>SUM(F21:F24)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13">
+        <f>SUM(E26:E28)</f>
+        <v>9</v>
+      </c>
+      <c r="F29" s="19">
+        <f>SUM(F26:F28)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="20">
         <v>55</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4">
-        <v>55</v>
-      </c>
-      <c r="F24" s="5">
-        <v>47</v>
+      <c r="F30" s="20">
+        <f>SUM(F6,F11,F15,F20,F25,F29)</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E69883-7335-49F2-B8E1-AF184D03F2EE}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,14 +2341,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4">
@@ -2071,17 +2358,17 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4">
         <v>0</v>
       </c>
@@ -2092,14 +2379,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4">
         <v>1</v>
       </c>
@@ -2107,17 +2394,17 @@
         <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4">
         <v>0</v>
       </c>
@@ -2128,414 +2415,500 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="19">
+        <f>SUM(E2:E5)</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="19">
+        <f>SUM(F2:F5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="19">
+        <f>SUM(E7:E9)</f>
+        <v>9</v>
+      </c>
+      <c r="F10" s="19">
+        <f>SUM(F7:F9)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="19">
+        <f>SUM(E11:E16)</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="19">
+        <f>SUM(F11:F16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="19">
+        <f>SUM(E18:E20)</f>
+        <v>9</v>
+      </c>
+      <c r="F21" s="19">
+        <f>SUM(F18:F20)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="19">
+        <f>SUM(E22:E25)</f>
+        <v>9</v>
+      </c>
+      <c r="F26" s="19">
+        <f>SUM(F22:F25)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="19">
+        <f>SUM(E27:E31)</f>
+        <v>10</v>
+      </c>
+      <c r="F32" s="19">
+        <f>SUM(F27:F31)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="22">
+        <f>SUM(E6,E10,E17,E21,E26,E32)</f>
         <v>54</v>
       </c>
-      <c r="F27" s="5">
-        <v>46</v>
+      <c r="F33" s="22">
+        <f>SUM(F6,F10,F17,F21,F26,F32)</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C27:C31"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2543,22 +2916,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547925B0-C28F-4F2D-8552-3985B43AA824}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,14 +2951,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4">
@@ -2595,17 +2968,17 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -2613,17 +2986,17 @@
         <v>4</v>
       </c>
       <c r="F3" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -2634,342 +3007,428 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="19">
+        <f>SUM(E2:E4)</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="19">
+        <f>SUM(F2:F4)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="19">
+        <f>SUM(E6:E8)</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="19">
+        <f>SUM(F6:F8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="19">
+        <f>SUM(E10:E13)</f>
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
+        <f>SUM(F10:F13)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <v>4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="19">
+        <f>SUM(E15:E17)</f>
+        <v>9</v>
+      </c>
+      <c r="F18" s="19">
+        <f>SUM(F15:F17)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="19">
+        <f>SUM(E19:E21)</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="19">
+        <f>SUM(F19:F21)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="19">
+        <f>SUM(E23:E26)</f>
+        <v>8</v>
+      </c>
+      <c r="F27" s="19">
+        <f>SUM(F23:F26)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="22">
+        <f>SUM(E5,E9,E14,E18,E22,E27)</f>
         <v>56</v>
       </c>
-      <c r="F22" s="5">
-        <v>48</v>
+      <c r="F28" s="22">
+        <f>SUM(F5,F9,F14,F18,F22,F27)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
